--- a/Examples/met_mast_reader_sample/inputfile.xlsx
+++ b/Examples/met_mast_reader_sample/inputfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\GitLab\tum_plc_linker\Examples\met_mast_reader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BC60C2-4ABD-4A37-879F-34A9500130CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D81C813-E2D0-4F07-BB81-D2F70B60928A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1845" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Folders" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
-  <si>
-    <t>VariableName</t>
-  </si>
-  <si>
-    <t>FolderName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>PLCApps</t>
   </si>
@@ -47,30 +41,12 @@
     <t>SimulinkModels</t>
   </si>
   <si>
-    <t>D:\Work\PhD\Codes\GitLab\tum_plc_linker\Examples\met_mast_reader\PLCApps</t>
-  </si>
-  <si>
     <t>PLC_Matlab_InterfaceRoutines</t>
   </si>
   <si>
-    <t>D:\Work\PhD\Codes\GitLab\tum_plc_linker\Examples\met_mast_reader\ReferenceCFiles</t>
-  </si>
-  <si>
-    <t>D:\Work\PhD\Codes\GitLab\tum_plc_linker\Examples\met_mast_reader\SimulinkCCodes</t>
-  </si>
-  <si>
-    <t>D:\Work\PhD\Codes\GitLab\tum_plc_linker\Examples\met_mast_reader\SimulinkModels</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>ExcelPLCFileName</t>
   </si>
   <si>
@@ -92,9 +68,6 @@
     <t>DataTypes_dict_filename</t>
   </si>
   <si>
-    <t>D:\Work\PhD\Codes\GitLab\tum_plc_linker\Examples\met_mast_reader\SVI_definition.xlsx</t>
-  </si>
-  <si>
     <t>0.1</t>
   </si>
   <si>
@@ -231,13 +204,34 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>KeyName</t>
+  </si>
+  <si>
+    <t>KeyValue</t>
+  </si>
+  <si>
+    <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader_sample\PLCApps</t>
+  </si>
+  <si>
+    <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader_sample\ReferenceCFiles</t>
+  </si>
+  <si>
+    <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader_sample\SimulinkCCodes</t>
+  </si>
+  <si>
+    <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader_sample\SimulinkModels</t>
+  </si>
+  <si>
+    <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader_sample\SVI_definition.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -588,61 +582,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -658,70 +652,70 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F2" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -733,53 +727,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9137685-5788-4D6B-BADA-2E7903B36039}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -788,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -804,65 +798,65 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -877,10 +871,10 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <v>600</v>
@@ -896,80 +890,80 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/met_mast_reader_sample/inputfile.xlsx
+++ b/Examples/met_mast_reader_sample/inputfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D81C813-E2D0-4F07-BB81-D2F70B60928A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D46F49-BA21-4759-BDFC-A072B28C7757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1845" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6384" yWindow="4500" windowWidth="13836" windowHeight="7236" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Folders" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>test_ITFC_filename</t>
   </si>
   <si>
-    <t>./Examples/met_mast_reader/mm_ITFC.mat</t>
-  </si>
-  <si>
     <t>modelTag</t>
   </si>
   <si>
@@ -225,13 +222,16 @@
   </si>
   <si>
     <t>D:\Work\PhD\Codes\Github\PAL\Examples\met_mast_reader_sample\SVI_definition.xlsx</t>
+  </si>
+  <si>
+    <t>./Examples/met_mast_reader_sample/mm_ITFC.mat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -582,32 +582,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -615,28 +615,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +652,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.44140625" customWidth="1"/>
     <col min="2" max="3" width="13.6640625" customWidth="1"/>
@@ -663,59 +663,59 @@
     <col min="9" max="9" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -727,11 +727,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9137685-5788-4D6B-BADA-2E7903B36039}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
@@ -742,38 +742,38 @@
     <col min="7" max="7" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +798,7 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
@@ -813,50 +813,50 @@
     <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2">
         <v>600</v>
@@ -893,32 +893,32 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -950,7 +950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
